--- a/CYB6014.2 Cyber Project 3/Assessment 1/Action Plan.xlsx
+++ b/CYB6014.2 Cyber Project 3/Assessment 1/Action Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>PROJECT DURATION</t>
   </si>
@@ -58,6 +58,27 @@
   </si>
   <si>
     <t>January 17 2022</t>
+  </si>
+  <si>
+    <t>Start Report</t>
+  </si>
+  <si>
+    <t>Include Curveball</t>
+  </si>
+  <si>
+    <t>Aquire Dongle</t>
+  </si>
+  <si>
+    <t>Initiate Dongle Testing</t>
+  </si>
+  <si>
+    <t>Finalise Testing Signoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deliver Implement Project </t>
+  </si>
+  <si>
+    <t>Project 3 Week 1</t>
   </si>
 </sst>
 </file>
@@ -99,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -128,6 +149,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,15 +458,15 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -539,25 +564,135 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
+      <c r="A10" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <f>D8</f>
+        <v>44690</v>
+      </c>
+      <c r="E10" s="11">
+        <f>D10+4</f>
+        <v>44694</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
+      <c r="A11" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <f>E10</f>
+        <v>44694</v>
+      </c>
+      <c r="E11" s="11">
+        <f>D11+3</f>
+        <v>44697</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
+      <c r="A12" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <f>E11</f>
+        <v>44697</v>
+      </c>
+      <c r="E12" s="11">
+        <f>D12+2</f>
+        <v>44699</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
+      <c r="A13" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <f>E12</f>
+        <v>44699</v>
+      </c>
+      <c r="E13" s="11">
+        <f>D13+21</f>
+        <v>44720</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
+      <c r="A14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <f>E13</f>
+        <v>44720</v>
+      </c>
+      <c r="E14" s="11">
+        <f>D14+C14</f>
+        <v>44725</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
+      <c r="A15" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7">
+        <f>E14</f>
+        <v>44725</v>
+      </c>
+      <c r="E15" s="11">
+        <f>D15+C15</f>
+        <v>44738</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
